--- a/biology/Zoologie/Heterodon/Heterodon.xlsx
+++ b/biology/Zoologie/Heterodon/Heterodon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Heterodon est un genre de serpents de la famille des Dipsadidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heterodon est un genre de serpents de la famille des Dipsadidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Amérique du Nord, du sud du Canada au nord du Mexique[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Amérique du Nord, du sud du Canada au nord du Mexique.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les adultes mesurent de 30 à 120 centimètres selon les espèces, avec une tête bien démarquée du corps. Les couleurs sont très variables, du brun-beige-sable aux rouges, verts, orange, en fonction des espèces et des sous-espèces. Ils présentent en général des taches plus sombres sur le corps.
 Les serpents de ce genre sont venimeux mais ce venin n'est pas mortel pour l'homme, et ils semblent ne s'en servir que pour se nourrir et non pour se défendre. Il s'agit de crochets opisthoglyphes.
@@ -575,9 +591,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (9 août 2013)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (9 août 2013) :
 Heterodon gloydi Edgren, 1952
 Heterodon kennerlyi Kennicott, 1860
 Heterodon nasicus Baird &amp; Girard, 1852
@@ -610,9 +628,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de ce genre, Heterodon, est construit avec les mots grecs heteras, « différent », et odon, « dent », en référence aux larges crochets postérieurs des espèces de ce genre[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de ce genre, Heterodon, est construit avec les mots grecs heteras, « différent », et odon, « dent », en référence aux larges crochets postérieurs des espèces de ce genre.
 </t>
         </is>
       </c>
@@ -641,7 +661,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Sonnini de Manoncourt &amp; Latreille, 1801 : Histoire naturelle des reptiles : avec figures dessinées d'apres nature, vol. 4, p. 1–410 (texte intégral).</t>
         </is>
